--- a/WSC/Test Cases/Infrastructure/WSC Project Plan Monitoring_Issues Test Cases.xlsx
+++ b/WSC/Test Cases/Infrastructure/WSC Project Plan Monitoring_Issues Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="599"/>
+    <workbookView windowWidth="27945" windowHeight="12330" tabRatio="599" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="333">
   <si>
     <t>Contents</t>
   </si>
@@ -113,8 +113,8 @@
   <si>
     <t>Credential for Infrastructure super admin:
 URL: https://soulwsc.eduleadonline.com/app/infrastructure
-User ID: Administrator
-Password: admin</t>
+User ID: project.manager@soulunileaders.com
+Password: erp@123</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -153,6 +153,12 @@
     <t>Project Type opens up.</t>
   </si>
   <si>
+    <t xml:space="preserve">issue type isopening </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Step 2</t>
   </si>
   <si>
@@ -162,6 +168,9 @@
     <t>New Project Type opens up.</t>
   </si>
   <si>
+    <t xml:space="preserve">new issue type page is opening </t>
+  </si>
+  <si>
     <t>Step 3</t>
   </si>
   <si>
@@ -169,6 +178,12 @@
   </si>
   <si>
     <t xml:space="preserve">New Project Type opens up with small message box Project Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue type name bos is dispalying </t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>Step 4</t>
@@ -180,6 +195,9 @@
   </si>
   <si>
     <t>The Issue Type details will be saved successfully.And added to the Issue Type List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue type is saving </t>
   </si>
   <si>
     <t>Step 5</t>
@@ -194,6 +212,9 @@
 Issue Type Name</t>
   </si>
   <si>
+    <t>Error message is dispalying `</t>
+  </si>
+  <si>
     <t>Step 6</t>
   </si>
   <si>
@@ -213,13 +234,19 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Name and Description is opening </t>
+  </si>
+  <si>
     <t>Step 8</t>
   </si>
   <si>
     <t>Enter "Add a Comment".Click on Comment.</t>
   </si>
   <si>
-    <t>The Comment is saved.</t>
+    <t>The Comment should be  saved.</t>
+  </si>
+  <si>
+    <t>Comment  is saved.</t>
   </si>
   <si>
     <t>Step 9</t>
@@ -231,23 +258,35 @@
     <t>The data is saved successfully.</t>
   </si>
   <si>
+    <t xml:space="preserve">Data is saving </t>
+  </si>
+  <si>
     <t>Step 10</t>
   </si>
   <si>
-    <t xml:space="preserve">Click on Home &gt; Project Plan Monitoring &gt; Project &gt; Project Type </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Type Page is opened with list of Project Types.
+    <t xml:space="preserve">Click on Home &gt; Project Plan Monitoring &gt; Project &gt; Issue Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue Type Page is opened with list of Issue Types.
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Issue is saving </t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
     <t>Step 11</t>
   </si>
   <si>
-    <t>Click on one of the Project Type.</t>
-  </si>
-  <si>
-    <t>The detials are shown about the Project Type.</t>
+    <t>Click on one of the Issue Type.</t>
+  </si>
+  <si>
+    <t>The detials are shown about the Issue Type.</t>
+  </si>
+  <si>
+    <t>Issue is dispalying</t>
   </si>
   <si>
     <t>ROLES</t>
@@ -275,6 +314,12 @@
     <t>Test Project Plan Monitoring_Issue Priority</t>
   </si>
   <si>
+    <t>Credential for Infrastructure super admin:
+URL: https://soulwsc.eduleadonline.com/app/infrastructure
+User ID: Administrator
+Password: admin</t>
+  </si>
+  <si>
     <t>Verify the Project Template module.</t>
   </si>
   <si>
@@ -288,16 +333,25 @@
     <t>Issue Priority page opens up.</t>
   </si>
   <si>
+    <t>Issue Priority page is opening.</t>
+  </si>
+  <si>
     <t>Check the "Issue Priority" Page.</t>
   </si>
   <si>
     <t>List of Issue Priority is displayed.</t>
   </si>
   <si>
+    <t>List of Issue Priority is displaying</t>
+  </si>
+  <si>
     <t>Click on "+ Add Issue Priority" Page.</t>
   </si>
   <si>
     <t>New Issue Priority Page opens up.</t>
+  </si>
+  <si>
+    <t>New Issue Priority Page is opening.</t>
   </si>
   <si>
     <t>Enter the below details in the New Issue Priority message box.
@@ -306,6 +360,9 @@
   </si>
   <si>
     <t>The New Issue Priority details will be saved successfully.And added to the Priority List.</t>
+  </si>
+  <si>
+    <t>The New Issue Priority details is saving</t>
   </si>
   <si>
     <t>The error message must be shown.
@@ -314,6 +371,9 @@
 Issue Priority Name</t>
   </si>
   <si>
+    <t>Error message is displaying</t>
+  </si>
+  <si>
     <t>The New Issue Priority page opens.</t>
   </si>
   <si>
@@ -324,16 +384,29 @@
 </t>
   </si>
   <si>
+    <t>Data is saved.</t>
+  </si>
+  <si>
+    <t>The Comment is saved.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Issue Priority Page is opened with list of  Issue Priority.
 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Issue Priority Page is opening with list of  Issue Priority.
+</t>
+  </si>
+  <si>
     <t>Click on one of the Issue Priority.</t>
   </si>
   <si>
     <t>The detials are shown about the Issue Priority.</t>
   </si>
   <si>
+    <t>The detials are showing about the Issue Priority.</t>
+  </si>
+  <si>
     <t>TC3_Issue</t>
   </si>
   <si>
@@ -349,10 +422,25 @@
     <t>Click on Home &gt; Project Plan Monitoring &gt;  Issues &gt;  Issue</t>
   </si>
   <si>
+    <t>ISSUE Type opens up.</t>
+  </si>
+  <si>
+    <t>Issue is opening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass </t>
+  </si>
+  <si>
     <t>Check the "Issue" page.</t>
   </si>
   <si>
+    <t>New Project Type is opening.</t>
+  </si>
+  <si>
     <t>Click on "+ Add Issue" page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Project Type is opening up with small message box Project Type </t>
   </si>
   <si>
     <t>Enter the below details in the New Issue message box.
@@ -365,10 +453,19 @@
     <t>The Issue details will be saved successfull and New Issue is created.And added to the Issue List.</t>
   </si>
   <si>
+    <t>The Issue details is saveing successfully.</t>
+  </si>
+  <si>
     <t>The error message must be shown.
 Missing Values Required
 Following fields have missing values:
 Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message is displaying </t>
+  </si>
+  <si>
+    <t>The New Issue Type page is opening.</t>
   </si>
   <si>
     <t>Enter the below details in the New Issue Type page.click on SAVE.
@@ -384,6 +481,9 @@
 </t>
   </si>
   <si>
+    <t>The data is saved .</t>
+  </si>
+  <si>
     <t>Select Status from the below options.
 -Open
 -Replied
@@ -395,10 +495,16 @@
     <t>The selected data is saved successfully.</t>
   </si>
   <si>
+    <t xml:space="preserve">option is showing and data is saved </t>
+  </si>
+  <si>
     <t>Click on the "Status" link.</t>
   </si>
   <si>
     <t>It will lead to Status page.</t>
+  </si>
+  <si>
+    <t>NA in the screen</t>
   </si>
   <si>
     <t>Select Priority from the below options.
@@ -1075,7 +1181,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,6 +1208,13 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.15"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1689,135 +1802,135 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1864,18 +1977,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1892,33 +2032,42 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1927,7 +2076,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2257,69 +2406,69 @@
   <sheetPr/>
   <dimension ref="A2:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="20.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="43.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="24.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="23.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="20.2761904761905" customWidth="1"/>
+    <col min="2" max="2" width="43.3619047619048" customWidth="1"/>
+    <col min="3" max="3" width="24.3619047619048" customWidth="1"/>
+    <col min="4" max="4" width="23.0952380952381" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="14.6363636363636" customWidth="1"/>
-    <col min="10" max="10" width="15.7272727272727" customWidth="1"/>
-    <col min="11" max="11" width="14.4545454545455" customWidth="1"/>
-    <col min="12" max="12" width="20.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="14.6380952380952" customWidth="1"/>
+    <col min="10" max="10" width="15.7238095238095" customWidth="1"/>
+    <col min="11" max="11" width="14.4571428571429" customWidth="1"/>
+    <col min="12" max="12" width="20.2761904761905" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="21" spans="2:2">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="88" customHeight="1" spans="1:12">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:12">
-      <c r="A5" s="47"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="55"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" ht="78" customHeight="1" spans="2:12">
       <c r="B6" s="4" t="s">
@@ -2327,25 +2476,25 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="69" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="54"/>
+      <c r="B7" s="70"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2365,18 +2514,18 @@
   <sheetPr/>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D22"/>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="190.363636363636" customWidth="1"/>
-    <col min="3" max="3" width="30.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="95.1818181818182" customWidth="1"/>
-    <col min="5" max="5" width="45.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="65.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="22.2761904761905" customWidth="1"/>
+    <col min="2" max="2" width="94" customWidth="1"/>
+    <col min="3" max="3" width="13.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="72.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="28.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2386,16 +2535,16 @@
       <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -2404,7 +2553,7 @@
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
@@ -2440,8 +2589,8 @@
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
@@ -2451,7 +2600,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="29" spans="1:8">
+    <row r="6" ht="30" spans="1:8">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -2479,7 +2628,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="58" spans="2:8">
+    <row r="8" ht="60" spans="2:8">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -2540,23 +2689,23 @@
       <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="14" customHeight="1" spans="1:7">
       <c r="A13" s="14"/>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="41" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
@@ -2569,204 +2718,248 @@
       <c r="D14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>39</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" ht="49" customHeight="1" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" ht="80" customHeight="1" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>39</v>
+      </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" ht="33" customHeight="1" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>39</v>
+      </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" ht="28" customHeight="1" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>76</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>39</v>
+      </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" customFormat="1" spans="1:7">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="45"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="33"/>
+      <c r="G25" s="45"/>
     </row>
     <row r="26" s="24" customFormat="1" spans="1:7">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
+        <v>81</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="36"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" s="25" customFormat="1" spans="1:4">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>70</v>
+      <c r="A27" s="50"/>
+      <c r="B27" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" s="24" customFormat="1" spans="1:4">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41" t="s">
-        <v>71</v>
+      <c r="A28" s="54"/>
+      <c r="B28" s="55" t="s">
+        <v>84</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="39" t="s">
-        <v>72</v>
+      <c r="D28" s="59" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="29" s="24" customFormat="1" spans="1:4">
       <c r="A29" s="25"/>
-      <c r="B29" s="41"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="39"/>
+      <c r="D29" s="59"/>
     </row>
     <row r="30" s="24" customFormat="1" spans="1:4">
       <c r="A30" s="25"/>
@@ -2774,15 +2967,15 @@
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
     </row>
-    <row r="31" s="24" customFormat="1" ht="29" spans="1:2">
+    <row r="31" s="24" customFormat="1" ht="30" spans="1:2">
       <c r="A31" s="25"/>
-      <c r="B31" s="44" t="s">
-        <v>73</v>
+      <c r="B31" s="57" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" s="24" customFormat="1" spans="1:2">
       <c r="A32" s="25"/>
-      <c r="B32" s="44"/>
+      <c r="B32" s="57"/>
     </row>
     <row r="33" s="24" customFormat="1"/>
     <row r="34" s="24" customFormat="1"/>
@@ -2827,17 +3020,17 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A25" sqref="$A25:$XFD37"/>
+      <selection activeCell="E21" sqref="E21:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="99.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="12.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="104.090909090909" customWidth="1"/>
-    <col min="5" max="5" width="15.9090909090909" customWidth="1"/>
-    <col min="6" max="6" width="30.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="22.2761904761905" customWidth="1"/>
+    <col min="2" max="2" width="72.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="12.2761904761905" customWidth="1"/>
+    <col min="4" max="4" width="57.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="44.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="19.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2845,18 +3038,18 @@
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="26"/>
+        <v>87</v>
+      </c>
+      <c r="C1" s="28"/>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="E1" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -2865,7 +3058,7 @@
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
@@ -2901,8 +3094,8 @@
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
@@ -2912,7 +3105,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="29" spans="1:8">
+    <row r="6" ht="30" spans="1:8">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -2940,9 +3133,9 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="58" spans="2:8">
+    <row r="8" ht="60" spans="2:8">
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2956,7 +3149,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3001,219 +3194,263 @@
       <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="31" customHeight="1" spans="1:7">
       <c r="A13" s="14"/>
-      <c r="B13" s="32" t="s">
-        <v>77</v>
+      <c r="B13" s="41" t="s">
+        <v>91</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" ht="47" customHeight="1" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="9"/>
+      <c r="D17" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" ht="87" spans="1:7">
+    <row r="18" ht="90" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="9"/>
+        <v>104</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="9"/>
+        <v>106</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" s="24" customFormat="1" spans="1:7">
       <c r="A25" s="20" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
+        <v>81</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="36"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" s="25" customFormat="1" spans="1:4">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>70</v>
+      <c r="A26" s="50"/>
+      <c r="B26" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="27" s="24" customFormat="1" spans="1:4">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41" t="s">
-        <v>71</v>
+      <c r="A27" s="54"/>
+      <c r="B27" s="55" t="s">
+        <v>84</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="39" t="s">
-        <v>72</v>
+      <c r="D27" s="59" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28" s="24" customFormat="1" spans="1:4">
@@ -3222,13 +3459,13 @@
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
     </row>
-    <row r="29" s="24" customFormat="1" ht="29" spans="2:2">
-      <c r="B29" s="43" t="s">
-        <v>73</v>
+    <row r="29" s="24" customFormat="1" ht="30" spans="2:2">
+      <c r="B29" s="60" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30" s="24" customFormat="1" spans="2:2">
-      <c r="B30" s="44"/>
+      <c r="B30" s="57"/>
     </row>
     <row r="31" s="24" customFormat="1"/>
     <row r="32" s="24" customFormat="1"/>
@@ -3272,18 +3509,19 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="116.181818181818" customWidth="1"/>
-    <col min="3" max="3" width="48.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="138" customWidth="1"/>
-    <col min="5" max="5" width="13.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="17.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="61.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="11.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="53.5714285714286" style="26" customWidth="1"/>
+    <col min="5" max="5" width="22.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="17.7142857142857" style="27" customWidth="1"/>
+    <col min="8" max="8" width="17.0952380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3291,18 +3529,18 @@
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="E1" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -3311,12 +3549,12 @@
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
@@ -3324,9 +3562,9 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
@@ -3334,9 +3572,9 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
@@ -3347,8 +3585,8 @@
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
@@ -3366,9 +3604,9 @@
         <v>22</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="38" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="3"/>
@@ -3380,20 +3618,20 @@
         <v>24</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="58" spans="2:8">
+    <row r="8" ht="60" spans="2:8">
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
@@ -3402,12 +3640,12 @@
         <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
@@ -3415,9 +3653,9 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
@@ -3425,9 +3663,9 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
@@ -3441,16 +3679,16 @@
       <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="39" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="40" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3458,387 +3696,462 @@
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>96</v>
+      <c r="B13" s="41" t="s">
+        <v>119</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" customFormat="1" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
+      <c r="D14" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" customFormat="1" spans="1:7">
+    <row r="15" customFormat="1" ht="30" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" customFormat="1" spans="1:7">
+    <row r="16" customFormat="1" ht="60" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" customFormat="1" ht="72.5" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="45"/>
+    </row>
+    <row r="17" customFormat="1" ht="75" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" customFormat="1" ht="87" spans="1:7">
+      <c r="D17" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="45"/>
+    </row>
+    <row r="18" customFormat="1" ht="90" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" customFormat="1" spans="1:7">
+        <v>131</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="45"/>
+    </row>
+    <row r="19" customFormat="1" ht="30" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" customFormat="1" ht="101.5" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="45"/>
+    </row>
+    <row r="20" customFormat="1" ht="105" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" customFormat="1" ht="87" spans="1:7">
+        <v>135</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="45"/>
+    </row>
+    <row r="21" customFormat="1" ht="90" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="33"/>
+        <v>138</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" customFormat="1" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" customFormat="1" ht="58" spans="1:7">
+        <v>141</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="45"/>
+    </row>
+    <row r="23" customFormat="1" ht="60" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="33"/>
+      <c r="E23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="45"/>
     </row>
     <row r="24" customFormat="1" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="33"/>
+        <v>146</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="45"/>
     </row>
     <row r="25" customFormat="1" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" customFormat="1" ht="43.5" spans="1:7">
+        <v>149</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="45"/>
+    </row>
+    <row r="26" customFormat="1" ht="45" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="33"/>
+        <v>152</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" customFormat="1" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="33"/>
+        <v>155</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" customFormat="1" spans="1:7">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" customFormat="1" ht="58" spans="1:7">
+      <c r="E28" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="45"/>
+    </row>
+    <row r="29" customFormat="1" ht="60" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="33"/>
+      <c r="E29" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" customFormat="1" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="33"/>
+      <c r="E30" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="G30" s="45"/>
     </row>
     <row r="31" customFormat="1" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="33"/>
+        <v>163</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="34"/>
+      <c r="G31" s="45"/>
     </row>
     <row r="32" customFormat="1" spans="1:7">
       <c r="A32" s="3" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="33"/>
+        <v>166</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="45"/>
     </row>
     <row r="33" customFormat="1" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" customFormat="1" spans="1:7">
+      <c r="D33" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="45"/>
+    </row>
+    <row r="34" customFormat="1" ht="30" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="33"/>
-    </row>
-    <row r="35" customFormat="1" ht="29" spans="1:7">
+      <c r="D34" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="45"/>
+    </row>
+    <row r="35" customFormat="1" ht="60" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="33"/>
+        <v>170</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" customFormat="1" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="33"/>
+      <c r="D36" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="45"/>
     </row>
     <row r="37" s="24" customFormat="1" spans="1:7">
       <c r="A37" s="20" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" s="25" customFormat="1" spans="1:4">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" s="24" customFormat="1" spans="1:4">
-      <c r="A39" s="40"/>
-      <c r="B39" s="41" t="s">
-        <v>71</v>
+        <v>81</v>
+      </c>
+      <c r="C37" s="47"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="49"/>
+    </row>
+    <row r="38" s="25" customFormat="1" ht="45" spans="1:6">
+      <c r="A38" s="50"/>
+      <c r="B38" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="53"/>
+    </row>
+    <row r="39" s="24" customFormat="1" ht="45" spans="1:6">
+      <c r="A39" s="54"/>
+      <c r="B39" s="55" t="s">
+        <v>84</v>
       </c>
       <c r="C39" s="25"/>
-      <c r="D39" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" s="24" customFormat="1" spans="1:4">
+      <c r="D39" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="56"/>
+    </row>
+    <row r="40" s="24" customFormat="1" spans="1:6">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="D40" s="57"/>
+      <c r="F40" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3860,14 +4173,14 @@
       <selection activeCell="D14" sqref="D14:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="99" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="75.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="36.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="15.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="9.54285714285714" customWidth="1"/>
+    <col min="4" max="4" width="75.2761904761905" customWidth="1"/>
+    <col min="6" max="6" width="36.1809523809524" customWidth="1"/>
+    <col min="8" max="8" width="15.8190476190476" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3875,14 +4188,14 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -3933,12 +4246,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="3" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -3967,7 +4280,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -4026,7 +4339,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
@@ -4039,11 +4352,11 @@
         <v>35</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="17" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4051,14 +4364,14 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="17" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4066,14 +4379,14 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4081,7 +4394,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="14"/>
@@ -4093,7 +4406,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="13" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="12"/>
@@ -4103,14 +4416,14 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="17" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -4118,14 +4431,14 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="17" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4133,14 +4446,14 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="9" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4148,14 +4461,14 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="9" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -4164,7 +4477,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="9"/>
@@ -4172,16 +4485,16 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" ht="72.5" spans="1:7">
+    <row r="24" ht="75" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="9" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -4190,7 +4503,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
@@ -4198,16 +4511,16 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" ht="58" spans="1:7">
+    <row r="26" ht="60" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="19" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -4215,14 +4528,14 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="9" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -4230,14 +4543,14 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="9" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -4245,10 +4558,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9"/>
@@ -4258,10 +4571,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
@@ -4272,7 +4585,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="15"/>
       <c r="B31" s="20" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
@@ -4280,46 +4593,46 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" ht="116" spans="1:7">
+    <row r="32" ht="120" spans="1:7">
       <c r="A32" s="15" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="19" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" ht="29" spans="1:7">
+    <row r="33" ht="30" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="19" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" ht="29" spans="1:7">
+    <row r="34" ht="30" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="19" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -4327,29 +4640,29 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="9" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" ht="43.5" spans="1:7">
+    <row r="36" ht="45" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="9" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -4357,14 +4670,14 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="9" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -4372,14 +4685,14 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="9" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -4387,14 +4700,14 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -4402,29 +4715,29 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" ht="72.5" spans="1:7">
+    <row r="41" ht="75" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="9" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4432,14 +4745,14 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="9" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4447,14 +4760,14 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="9" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -4462,14 +4775,14 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -4477,14 +4790,14 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="9" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -4492,14 +4805,14 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="9" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -4507,10 +4820,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="9"/>
@@ -4520,25 +4833,25 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="9" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" ht="29" spans="1:7">
+    <row r="49" ht="30" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="9"/>
@@ -4548,14 +4861,14 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="9" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -4563,10 +4876,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="9"/>
@@ -4576,10 +4889,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="9"/>
@@ -4589,10 +4902,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="9"/>
@@ -4602,10 +4915,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="9"/>
@@ -4625,7 +4938,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="20" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="9"/>
@@ -4635,14 +4948,14 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="9" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -4660,7 +4973,7 @@
     <row r="59" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="20" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="9"/>
@@ -4670,14 +4983,14 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="9" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -4685,14 +4998,14 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="9" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -4700,14 +5013,14 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="9" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -4715,31 +5028,31 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="9" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="9" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -4747,29 +5060,29 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="9" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" ht="43.5" spans="1:7">
+    <row r="66" ht="45" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="9" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -4777,29 +5090,29 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="9" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" ht="159.5" spans="1:7">
+    <row r="68" ht="165" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="19" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -4807,14 +5120,14 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="9" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -4822,14 +5135,14 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="9" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -4837,14 +5150,14 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="9" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -4852,14 +5165,14 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="9" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="9"/>
@@ -4867,14 +5180,14 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="9" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="9"/>
@@ -4882,14 +5195,14 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="9" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="9"/>
@@ -4897,14 +5210,14 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="9" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="9"/>
@@ -4912,14 +5225,14 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="9" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -4927,14 +5240,14 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="9" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -4943,7 +5256,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="22" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4953,14 +5266,14 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="3"/>
@@ -4968,14 +5281,14 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="3"/>
@@ -4983,14 +5296,14 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
